--- a/instances/I1_R1_mean.xlsx
+++ b/instances/I1_R1_mean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240DC511-EDF4-4CBF-98C7-A817A3B0EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA62ECF-BB3D-4B8E-87D0-86CDD3562DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>I1_R1_mean</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA4EAAB-F661-46EA-B43C-95D0BF318470}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,9 +3040,11 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3052,6 +3054,9 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>14.8</v>
       </c>
     </row>
@@ -3063,6 +3068,9 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>26.2</v>
       </c>
     </row>
@@ -3074,6 +3082,9 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>35</v>
       </c>
     </row>
@@ -3085,6 +3096,9 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>17.8</v>
       </c>
     </row>
@@ -3096,6 +3110,9 @@
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>25.2</v>
       </c>
     </row>
@@ -3107,6 +3124,9 @@
         <v>2</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>17.8</v>
       </c>
     </row>
@@ -3118,6 +3138,9 @@
         <v>3</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>14.6</v>
       </c>
     </row>
@@ -3129,6 +3152,9 @@
         <v>4</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>24.8</v>
       </c>
     </row>
@@ -3140,6 +3166,9 @@
         <v>1</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>24.4</v>
       </c>
     </row>
@@ -3151,6 +3180,9 @@
         <v>2</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>15</v>
       </c>
     </row>
@@ -3162,6 +3194,9 @@
         <v>3</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>14.8</v>
       </c>
     </row>
@@ -3173,6 +3208,9 @@
         <v>4</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>27</v>
       </c>
     </row>
@@ -3184,6 +3222,9 @@
         <v>1</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>25.2</v>
       </c>
     </row>
@@ -3195,6 +3236,9 @@
         <v>2</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
     </row>
@@ -3206,10 +3250,13 @@
         <v>3</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3217,10 +3264,13 @@
         <v>4</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3228,10 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>26.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3239,10 +3292,13 @@
         <v>2</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3250,10 +3306,13 @@
         <v>3</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>15.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3261,10 +3320,13 @@
         <v>4</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>24.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3272,10 +3334,13 @@
         <v>1</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>24.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3283,10 +3348,13 @@
         <v>2</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>15.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3294,10 +3362,13 @@
         <v>3</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3305,10 +3376,13 @@
         <v>4</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>23.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3316,10 +3390,13 @@
         <v>1</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>34.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3327,10 +3404,13 @@
         <v>2</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3338,10 +3418,13 @@
         <v>3</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>33.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3349,10 +3432,13 @@
         <v>4</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>24.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3360,10 +3446,13 @@
         <v>1</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -3371,10 +3460,13 @@
         <v>2</v>
       </c>
       <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>35.4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3382,10 +3474,13 @@
         <v>3</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3393,10 +3488,13 @@
         <v>4</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>24.6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3404,10 +3502,13 @@
         <v>1</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3415,10 +3516,13 @@
         <v>2</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>24.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3426,10 +3530,13 @@
         <v>3</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>46.4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -3437,10 +3544,13 @@
         <v>4</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>23.2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -3448,10 +3558,13 @@
         <v>1</v>
       </c>
       <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>5.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -3459,10 +3572,13 @@
         <v>2</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>24.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3470,18 +3586,24 @@
         <v>3</v>
       </c>
       <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>43.8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
-        <v>24</v>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>26.2</v>
       </c>
     </row>
   </sheetData>

--- a/instances/I1_R1_mean.xlsx
+++ b/instances/I1_R1_mean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA62ECF-BB3D-4B8E-87D0-86CDD3562DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC5073-8FE2-4876-8E25-6E162E510030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>m</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,6 +558,14 @@
       </c>
       <c r="B11">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +579,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>12.545402596363999</v>
@@ -626,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>12.546348159235199</v>
@@ -640,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>12.5486791622107</v>
@@ -654,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>12.536930630126299</v>
@@ -668,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>12.549787514294101</v>
@@ -682,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>12.557213473253199</v>
@@ -696,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>12.551560877627599</v>
@@ -710,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>12.541973632105901</v>
@@ -724,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>12.550424816742099</v>
@@ -738,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>12.549621261481599</v>
@@ -3026,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA4EAAB-F661-46EA-B43C-95D0BF318470}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/instances/I1_R1_mean.xlsx
+++ b/instances/I1_R1_mean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC5073-8FE2-4876-8E25-6E162E510030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB9C1B-8922-4F18-A6F9-20EBE4164B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA4EAAB-F661-46EA-B43C-95D0BF318470}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
